--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,23 @@
   <workbookPr dateCompatibility="0" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B57375-57CC-5242-A2CA-1D31CC1E6694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4108859E-B532-4242-A82F-E9EB245EC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="总仓到配送中心" sheetId="1" r:id="rId1"/>
-    <sheet name="中心到用户" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="总仓到配送中心" sheetId="4" r:id="rId1"/>
+    <sheet name="配送中心到用户" sheetId="1" r:id="rId2"/>
+    <sheet name="配送中心" sheetId="3" r:id="rId3"/>
+    <sheet name="采购页面" sheetId="10" r:id="rId4"/>
+    <sheet name="运输端" sheetId="5" r:id="rId5"/>
+    <sheet name="库存情况" sheetId="7" r:id="rId6"/>
+    <sheet name="采购情况" sheetId="6" r:id="rId7"/>
+    <sheet name="需求情况" sheetId="8" r:id="rId8"/>
+    <sheet name="车辆情况" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -34,23 +40,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="34" uniqueCount="29">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="135" uniqueCount="90">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>所属区域</t>
+  </si>
+  <si>
+    <t>备件名称</t>
+  </si>
+  <si>
+    <t>所需数量</t>
+  </si>
+  <si>
+    <t>备件类型</t>
+  </si>
+  <si>
+    <t>ZL2021102801</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>橡胶弹簧 (ø260切割环)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ZL2021102802</t>
+  </si>
+  <si>
+    <t>株洲</t>
+  </si>
+  <si>
+    <t>（B）中联自制3方搅拌主机衬板总成</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>ZL2021102803</t>
+  </si>
+  <si>
+    <t>衡阳</t>
+  </si>
+  <si>
+    <t>导向环Ф200/个</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>客户名称</t>
   </si>
   <si>
-    <t>备件名称</t>
-  </si>
-  <si>
-    <t>所需数量</t>
-  </si>
-  <si>
-    <t>备件类型</t>
-  </si>
-  <si>
     <t>ZL2021102701</t>
   </si>
   <si>
@@ -72,9 +117,6 @@
     <t>长城L-CKD150 齿轮油 18L\16KG</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>ZL2021102703</t>
   </si>
   <si>
@@ -87,47 +129,197 @@
     <t>B1</t>
   </si>
   <si>
-    <t>所属区域</t>
-  </si>
-  <si>
-    <t>ZL2021102801</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>橡胶弹簧 (ø260切割环)</t>
-  </si>
-  <si>
-    <t>ZL2021102802</t>
-  </si>
-  <si>
-    <t>株洲</t>
-  </si>
-  <si>
-    <t>（B）中联自制3方搅拌主机衬板总成</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>ZL2021102803</t>
-  </si>
-  <si>
-    <t>衡阳</t>
-  </si>
-  <si>
-    <t>导向环Ф200/个</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>仓库所在地</t>
+  </si>
+  <si>
+    <t>订货物流</t>
+  </si>
+  <si>
+    <t>订货量</t>
+  </si>
+  <si>
+    <t>剩余库存</t>
+  </si>
+  <si>
+    <t>湖南长沙</t>
+  </si>
+  <si>
+    <t>油管</t>
+  </si>
+  <si>
+    <t>湖南衡阳蒸湘区</t>
+  </si>
+  <si>
+    <t>发动机</t>
+  </si>
+  <si>
+    <t>湖南衡阳朝阳区</t>
+  </si>
+  <si>
+    <t>底盘</t>
+  </si>
+  <si>
+    <t>配送方式</t>
+  </si>
+  <si>
+    <t>物资详情</t>
+  </si>
+  <si>
+    <t>库存数量</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>企业号</t>
+  </si>
+  <si>
+    <t>货物数量</t>
+  </si>
+  <si>
+    <t>进货</t>
+  </si>
+  <si>
+    <t>出货</t>
+  </si>
+  <si>
+    <t>货物详情</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>开始调配</t>
+  </si>
+  <si>
+    <t>正在调配</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>库存数</t>
+  </si>
+  <si>
+    <t>S管阀（230）</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>眼镜板Φ260</t>
+  </si>
+  <si>
+    <t>230老款型 S管总成</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>采购预警</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>进货量</t>
+  </si>
+  <si>
+    <t>库存剩余</t>
+  </si>
+  <si>
+    <t>ZL20211003</t>
+  </si>
+  <si>
+    <t>十分紧急</t>
+  </si>
+  <si>
+    <t>切割环Φ230</t>
+  </si>
+  <si>
+    <t>ZL20211004</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>齿轮油\SHC220\18L</t>
+  </si>
+  <si>
+    <t>ZL20211005</t>
+  </si>
+  <si>
+    <t>中联-美孚液压油208L</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>处理情况</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 编号</t>
+  </si>
+  <si>
+    <t>车辆情况</t>
+  </si>
+  <si>
+    <t>所处位置</t>
+  </si>
+  <si>
+    <t>可装载量</t>
+  </si>
+  <si>
+    <t>运输成本</t>
+  </si>
+  <si>
+    <t>空闲</t>
+  </si>
+  <si>
+    <t>长沙园区</t>
+  </si>
+  <si>
+    <t>12t</t>
+  </si>
+  <si>
+    <t>忙碌</t>
+  </si>
+  <si>
+    <t>沅江园区</t>
+  </si>
+  <si>
+    <t>宁乡园区</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -140,6 +332,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -165,14 +363,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,9 +399,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,88 +678,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>230</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -545,84 +772,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="5">
+        <v>230</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="6"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="6"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="6"/>
+      <c r="F13" s="8"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -631,15 +876,695 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1324</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9">
+        <v>567</v>
+      </c>
+      <c r="D3" s="9">
+        <v>167</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3564</v>
+      </c>
+      <c r="D4" s="9">
+        <v>142</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>5634</v>
+      </c>
+      <c r="C2">
+        <v>142</v>
+      </c>
+      <c r="D2">
+        <v>1245</v>
+      </c>
+      <c r="E2">
+        <v>568</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>6726</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>674</v>
+      </c>
+      <c r="C3">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>12578</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>578</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>1240</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>24571</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="d">
+        <v>2021-10-03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>321</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="d">
+        <v>2021-10-05</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>243</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="d">
+        <v>2021-10-06</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>345</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="d">
+        <v>2021-10-03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>321</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="d">
+        <v>2021-10-05</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="d">
+        <v>2021-10-06</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4108859E-B532-4242-A82F-E9EB245EC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE489809-6874-EE4A-B94C-7885DF3455B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总仓到配送中心" sheetId="4" r:id="rId1"/>
@@ -28,13 +28,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -315,9 +308,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -375,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -405,7 +398,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -771,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -875,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -979,10 +972,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1072,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1192,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1267,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1371,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1486,11 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1566,5 +1559,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE489809-6874-EE4A-B94C-7885DF3455B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{289D9DE6-F4FD-724B-839C-4A2433FACE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总仓到配送中心" sheetId="4" r:id="rId1"/>
-    <sheet name="配送中心到用户" sheetId="1" r:id="rId2"/>
-    <sheet name="配送中心" sheetId="3" r:id="rId3"/>
-    <sheet name="采购页面" sheetId="10" r:id="rId4"/>
-    <sheet name="运输端" sheetId="5" r:id="rId5"/>
-    <sheet name="库存情况" sheetId="7" r:id="rId6"/>
-    <sheet name="采购情况" sheetId="6" r:id="rId7"/>
-    <sheet name="需求情况" sheetId="8" r:id="rId8"/>
-    <sheet name="车辆情况" sheetId="9" r:id="rId9"/>
+    <sheet name="物流端" sheetId="11" r:id="rId1"/>
+    <sheet name="总仓到配送中心" sheetId="4" r:id="rId2"/>
+    <sheet name="配送中心到用户" sheetId="1" r:id="rId3"/>
+    <sheet name="配送中心" sheetId="3" r:id="rId4"/>
+    <sheet name="采购页面" sheetId="10" r:id="rId5"/>
+    <sheet name="运输端" sheetId="5" r:id="rId6"/>
+    <sheet name="库存情况" sheetId="7" r:id="rId7"/>
+    <sheet name="采购情况" sheetId="6" r:id="rId8"/>
+    <sheet name="需求情况" sheetId="8" r:id="rId9"/>
+    <sheet name="车辆情况" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="135" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="161" uniqueCount="107">
   <si>
     <t>编号</t>
   </si>
@@ -303,6 +304,59 @@
   </si>
   <si>
     <t>宁乡园区</t>
+  </si>
+  <si>
+    <t>长沙宁乡</t>
+  </si>
+  <si>
+    <t>C121233</t>
+  </si>
+  <si>
+    <t>C公司</t>
+  </si>
+  <si>
+    <t>长沙望城</t>
+  </si>
+  <si>
+    <t>B512233</t>
+  </si>
+  <si>
+    <t>B公司</t>
+  </si>
+  <si>
+    <t>衡阳市珠晖区</t>
+  </si>
+  <si>
+    <t>A420233</t>
+  </si>
+  <si>
+    <t>A公司</t>
+  </si>
+  <si>
+    <t>（要求）抵达时间</t>
+  </si>
+  <si>
+    <t>配送地点</t>
+  </si>
+  <si>
+    <t>订货客户id</t>
+  </si>
+  <si>
+    <t>订货客户</t>
+  </si>
+  <si>
+    <t>配送数量</t>
+  </si>
+  <si>
+    <t>配送备件</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -364,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +448,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,6 +733,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD75A5FD-2ADD-2844-9ABF-9001C4531D79}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="9"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="10" t="d">
+        <v>2021-11-10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="10" t="d">
+        <v>2021-11-16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="10" t="d">
+        <v>2021-11-28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -763,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -867,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -971,7 +1251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1064,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1184,7 +1464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1259,7 +1539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1363,7 +1643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1476,89 +1756,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr dateCompatibility="0" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{289D9DE6-F4FD-724B-839C-4A2433FACE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E716B1A-E6D6-5545-A287-306DEAE67FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物流端" sheetId="11" r:id="rId1"/>
-    <sheet name="总仓到配送中心" sheetId="4" r:id="rId2"/>
-    <sheet name="配送中心到用户" sheetId="1" r:id="rId3"/>
-    <sheet name="配送中心" sheetId="3" r:id="rId4"/>
-    <sheet name="采购页面" sheetId="10" r:id="rId5"/>
-    <sheet name="运输端" sheetId="5" r:id="rId6"/>
-    <sheet name="库存情况" sheetId="7" r:id="rId7"/>
-    <sheet name="采购情况" sheetId="6" r:id="rId8"/>
-    <sheet name="需求情况" sheetId="8" r:id="rId9"/>
-    <sheet name="车辆情况" sheetId="9" r:id="rId10"/>
+    <sheet name="备件等级" sheetId="12" r:id="rId2"/>
+    <sheet name="总仓到配送中心" sheetId="4" r:id="rId3"/>
+    <sheet name="配送中心到用户" sheetId="1" r:id="rId4"/>
+    <sheet name="配送中心" sheetId="3" r:id="rId5"/>
+    <sheet name="采购页面" sheetId="10" r:id="rId6"/>
+    <sheet name="运输端" sheetId="5" r:id="rId7"/>
+    <sheet name="库存情况" sheetId="7" r:id="rId8"/>
+    <sheet name="采购情况" sheetId="6" r:id="rId9"/>
+    <sheet name="需求情况" sheetId="8" r:id="rId10"/>
+    <sheet name="车辆情况" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="161" uniqueCount="107">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="308" uniqueCount="241">
   <si>
     <t>编号</t>
   </si>
@@ -357,14 +358,417 @@
   <si>
     <t>运输中</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混凝土零部件名称</t>
+  </si>
+  <si>
+    <t>库存金额（元）</t>
+  </si>
+  <si>
+    <t>通用性</t>
+  </si>
+  <si>
+    <t>订货提前期</t>
+  </si>
+  <si>
+    <t>中联自制4方搅拌主机搅拌臂总成</t>
+  </si>
+  <si>
+    <t>中联自制4方搅拌主机衬板总成</t>
+  </si>
+  <si>
+    <t>S管阀（200）</t>
+  </si>
+  <si>
+    <t>中联4.0管件系列-53米成套</t>
+  </si>
+  <si>
+    <t>仕高玛3方搅拌主机衬板总成</t>
+  </si>
+  <si>
+    <t>仕高玛3方搅拌主机搅拌臂总成</t>
+  </si>
+  <si>
+    <t>中联4.0管件系列-63米成套</t>
+  </si>
+  <si>
+    <t>中联4.0管件系列-56米成套</t>
+  </si>
+  <si>
+    <t>中联4.0管件系列-52米成套</t>
+  </si>
+  <si>
+    <t>眼镜板Φ200</t>
+  </si>
+  <si>
+    <t>美孚DTE26抗磨液压油</t>
+  </si>
+  <si>
+    <t>中联4.0管件系列-38米成套</t>
+  </si>
+  <si>
+    <t>美孚DTE25抗磨液压油</t>
+  </si>
+  <si>
+    <t>中联壳牌柴机油15W40CI-4 200L</t>
+  </si>
+  <si>
+    <t>美孚DTE24抗磨液压油</t>
+  </si>
+  <si>
+    <t>中联壳牌柴机油15W40CH-4 200L</t>
+  </si>
+  <si>
+    <t>中联重科专用高级抗磨液压油HM+46（第三代）200L</t>
+  </si>
+  <si>
+    <t>道达尔液压油200L</t>
+  </si>
+  <si>
+    <t>仕高玛2方搅拌主机衬板总成</t>
+  </si>
+  <si>
+    <t>（B）中联自制3方搅拌主机搅拌臂总成</t>
+  </si>
+  <si>
+    <t>SPC全合成齿轮油</t>
+  </si>
+  <si>
+    <t>眼镜板Φ230(经济)</t>
+  </si>
+  <si>
+    <t>（B）中联自制2方搅拌主机叶片总成</t>
+  </si>
+  <si>
+    <t>切割环Φ200</t>
+  </si>
+  <si>
+    <t>（B）中联自制2方搅拌主机衬板总成</t>
+  </si>
+  <si>
+    <t>仕高玛2方搅拌主机搅拌臂总成</t>
+  </si>
+  <si>
+    <t>仕高玛2方搅拌主机刮刀总成</t>
+  </si>
+  <si>
+    <t>混凝土缸φ230*2250</t>
+  </si>
+  <si>
+    <t>混凝土缸φ200*1960</t>
+  </si>
+  <si>
+    <t>切割环Φ230（经济）</t>
+  </si>
+  <si>
+    <t>切割环Φ260</t>
+  </si>
+  <si>
+    <t>混凝土缸φ260</t>
+  </si>
+  <si>
+    <t>混凝土缸φ260*2250</t>
+  </si>
+  <si>
+    <t>（B）中联自制2方搅拌主机搅拌臂总成</t>
+  </si>
+  <si>
+    <t>（B）中联自制3方搅拌主机叶片总成</t>
+  </si>
+  <si>
+    <t>仕高玛3方搅拌主机刮刀总成</t>
+  </si>
+  <si>
+    <t>260型混凝土缸（常用）</t>
+  </si>
+  <si>
+    <t>滤芯MR2504A10A</t>
+  </si>
+  <si>
+    <t>多威力柴机油OE 15W40\18L</t>
+  </si>
+  <si>
+    <t>齿轮油\18L/桶\\EP150</t>
+  </si>
+  <si>
+    <t>活塞Ф260/个</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎12.00R20 D-989\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>混凝土缸φ200*1800</t>
+  </si>
+  <si>
+    <t>橡胶弹簧 (ø230切割环)</t>
+  </si>
+  <si>
+    <t>美孚超级黑霸王15W-40 CI-4 18L</t>
+  </si>
+  <si>
+    <t>万力轮胎SDR01\12R22.5/18PR</t>
+  </si>
+  <si>
+    <t>龙蟠-中联专用尿素溶液1000KG</t>
+  </si>
+  <si>
+    <t>出口弯管 230-出口弯（泵车）</t>
+  </si>
+  <si>
+    <t>混凝土缸φ230*1750</t>
+  </si>
+  <si>
+    <t>万力轮胎18PR/SAM01+\\12.00R20</t>
+  </si>
+  <si>
+    <t>多威力柴机油OE 20w50\18L</t>
+  </si>
+  <si>
+    <t>长城中联重科混凝土专用柴机油CI-4 15W40</t>
+  </si>
+  <si>
+    <t>中联壳牌柴机油15W40CH-4 18L</t>
+  </si>
+  <si>
+    <t>长城中联重科混凝土专用柴机油CI-4 20W50</t>
+  </si>
+  <si>
+    <t>奔驰空滤包</t>
+  </si>
+  <si>
+    <t>滤芯FBX(TZ)-400X20</t>
+  </si>
+  <si>
+    <t>销量冠军-富力通轮胎1</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎11.00R20 D-989\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>活塞+导向环套装Ф260</t>
+  </si>
+  <si>
+    <t>富力通轮胎18PR/S-3050\\11.00R20</t>
+  </si>
+  <si>
+    <t>出口弯管 260-出口弯（泵车）</t>
+  </si>
+  <si>
+    <t>滤芯SF250m25</t>
+  </si>
+  <si>
+    <t>万力轮胎SFR03\\11R22.5/16PR</t>
+  </si>
+  <si>
+    <t>发动机专用机油</t>
+  </si>
+  <si>
+    <t>活塞Ф200/个</t>
+  </si>
+  <si>
+    <t>锂基脂ZL-2</t>
+  </si>
+  <si>
+    <t>昆仑天威柴机油CH-4 15W40\18L</t>
+  </si>
+  <si>
+    <t>锂基脂ZL-3</t>
+  </si>
+  <si>
+    <t>五十铃油滤包</t>
+  </si>
+  <si>
+    <t>锂基脂ZL-1</t>
+  </si>
+  <si>
+    <t>万力轮胎SAM02\\12.00R20/18PR</t>
+  </si>
+  <si>
+    <t>万力轮胎20PR/SFR01\\315/80R22.5</t>
+  </si>
+  <si>
+    <t>长城中联重科混凝土专用车辆齿轮油GL-5 85W90</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎11.00R20 D-969\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎12.00R20 D-969\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>中联壳牌柴机油15W40CI-4 18L</t>
+  </si>
+  <si>
+    <t>泵车双层直管（全规格）</t>
+  </si>
+  <si>
+    <t>中联4.0双层直管</t>
+  </si>
+  <si>
+    <t>万力轮胎SAH03\\295/80R22.5/16PR</t>
+  </si>
+  <si>
+    <t>重汽豪沃底盘保养包</t>
+  </si>
+  <si>
+    <t>锂基脂000#</t>
+  </si>
+  <si>
+    <t>滤芯MAHLE 852 755 DGR 25</t>
+  </si>
+  <si>
+    <t>3米双头软管</t>
+  </si>
+  <si>
+    <t>锂基脂0#</t>
+  </si>
+  <si>
+    <t>S管大端密封</t>
+  </si>
+  <si>
+    <t>双层弯管R275/90°</t>
+  </si>
+  <si>
+    <t>锂基脂00#</t>
+  </si>
+  <si>
+    <t>道依茨油滤包</t>
+  </si>
+  <si>
+    <t>超级末端弯管124XR190.5B-90°</t>
+  </si>
+  <si>
+    <t>S管大小端密封一组（5套）</t>
+  </si>
+  <si>
+    <t>滤芯ZX-630X100</t>
+  </si>
+  <si>
+    <t>万力轮胎18PR/SAM01+\\11.00R20</t>
+  </si>
+  <si>
+    <t>富力通轮胎2</t>
+  </si>
+  <si>
+    <t>滤芯HP1352D16ANP01</t>
+  </si>
+  <si>
+    <t>奔驰油滤包</t>
+  </si>
+  <si>
+    <t>活塞+导向环套装Ф230</t>
+  </si>
+  <si>
+    <t>万力轮胎SDR01\295/80R22.5\18PR</t>
+  </si>
+  <si>
+    <t>超级末端弯管124XR180B-90°</t>
+  </si>
+  <si>
+    <t>活塞Ф230/个</t>
+  </si>
+  <si>
+    <t>泵车单层直管</t>
+  </si>
+  <si>
+    <t>重负荷防冻液 -35度</t>
+  </si>
+  <si>
+    <t>活塞+导向环套装Ф200</t>
+  </si>
+  <si>
+    <t>橡胶弹簧 (ø200切割环)</t>
+  </si>
+  <si>
+    <t>超级末端弯管124xR275B-90°</t>
+  </si>
+  <si>
+    <t>125B大法兰Ⅺ型管卡</t>
+  </si>
+  <si>
+    <t>防冻液 -25度</t>
+  </si>
+  <si>
+    <t>3米单头软管</t>
+  </si>
+  <si>
+    <t>五十铃空滤包</t>
+  </si>
+  <si>
+    <t>双层弯管R180/90°</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎12R22.5 D-326\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>道依茨空滤包</t>
+  </si>
+  <si>
+    <t>齿轮油\85W90GL-5 4L/桶\\</t>
+  </si>
+  <si>
+    <t>万力钻石轮胎12R22.5 D-368\橡胶\GB9744-2015</t>
+  </si>
+  <si>
+    <t>O型圈 （ø260眼镜板经济型）</t>
+  </si>
+  <si>
+    <t>高强度直管(焊管)Φ133×4.5×3000B</t>
+  </si>
+  <si>
+    <t>富力通轮胎18PR/S-3050\\12.00R20</t>
+  </si>
+  <si>
+    <t>滤芯SF250M90</t>
+  </si>
+  <si>
+    <t>直管(焊管)\\\125×3000B</t>
+  </si>
+  <si>
+    <t>O型圈 （ø230眼镜板经济型）</t>
+  </si>
+  <si>
+    <t>125B I型管卡</t>
+  </si>
+  <si>
+    <t>双层弯管R240/36°</t>
+  </si>
+  <si>
+    <t>导向环Ф230/个</t>
+  </si>
+  <si>
+    <t>125BⅩ型管卡</t>
+  </si>
+  <si>
+    <t>导向环Ф260/个</t>
+  </si>
+  <si>
+    <t>拖泵高强度直管</t>
+  </si>
+  <si>
+    <t>中联4.0双层弯管</t>
+  </si>
+  <si>
+    <t>O型圈 （ø200眼镜板经济型）</t>
+  </si>
+  <si>
+    <t>双层弯管R240/45°</t>
+  </si>
+  <si>
+    <t>S管小端密封</t>
+  </si>
+  <si>
+    <t>龙蟠-中联专用尿素溶液10KG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -418,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +862,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -736,7 +1144,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD75A5FD-2ADD-2844-9ABF-9001C4531D79}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -865,6 +1273,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="d">
+        <v>2021-10-03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>321</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="d">
+        <v>2021-10-05</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="d">
+        <v>2021-10-06</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -950,6 +1473,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E17D6C-44BA-9B4A-9C95-89DCEC61BB27}">
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2151380</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1593863</v>
+      </c>
+      <c r="C3" s="5">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1515110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1485328</v>
+      </c>
+      <c r="C5" s="5">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1441122</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5">
+        <v>917700</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5">
+        <v>896682</v>
+      </c>
+      <c r="C8" s="5">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5">
+        <v>862866</v>
+      </c>
+      <c r="C9" s="5">
+        <v>95</v>
+      </c>
+      <c r="D9" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5">
+        <v>778024</v>
+      </c>
+      <c r="C10" s="5">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="5">
+        <v>776828</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="5">
+        <v>740853</v>
+      </c>
+      <c r="C12" s="5">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="5">
+        <v>717080</v>
+      </c>
+      <c r="C13" s="5">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5">
+        <v>705208</v>
+      </c>
+      <c r="C14" s="5">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>682719</v>
+      </c>
+      <c r="C15" s="5">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="5">
+        <v>656376</v>
+      </c>
+      <c r="C16" s="5">
+        <v>156</v>
+      </c>
+      <c r="D16" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5">
+        <v>634140</v>
+      </c>
+      <c r="C17" s="5">
+        <v>200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5">
+        <v>632934</v>
+      </c>
+      <c r="C18" s="5">
+        <v>152</v>
+      </c>
+      <c r="D18" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="5">
+        <v>616704</v>
+      </c>
+      <c r="C19" s="5">
+        <v>157</v>
+      </c>
+      <c r="D19" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="5">
+        <v>613399</v>
+      </c>
+      <c r="C20" s="5">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="5">
+        <v>611030</v>
+      </c>
+      <c r="C21" s="5">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>590040</v>
+      </c>
+      <c r="C22" s="5">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="5">
+        <v>574992</v>
+      </c>
+      <c r="C23" s="5">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="5">
+        <v>541748</v>
+      </c>
+      <c r="C24" s="5">
+        <v>120</v>
+      </c>
+      <c r="D24" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="5">
+        <v>540232</v>
+      </c>
+      <c r="C25" s="5">
+        <v>150</v>
+      </c>
+      <c r="D25" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="5">
+        <v>509243</v>
+      </c>
+      <c r="C26" s="5">
+        <v>151</v>
+      </c>
+      <c r="D26" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="5">
+        <v>507312</v>
+      </c>
+      <c r="C27" s="5">
+        <v>154</v>
+      </c>
+      <c r="D27" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5">
+        <v>485584</v>
+      </c>
+      <c r="C28" s="5">
+        <v>185</v>
+      </c>
+      <c r="D28" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="5">
+        <v>481296</v>
+      </c>
+      <c r="C29" s="5">
+        <v>190</v>
+      </c>
+      <c r="D29" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5">
+        <v>469336</v>
+      </c>
+      <c r="C30" s="5">
+        <v>250</v>
+      </c>
+      <c r="D30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5">
+        <v>454092</v>
+      </c>
+      <c r="C31" s="5">
+        <v>211</v>
+      </c>
+      <c r="D31" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="5">
+        <v>439960</v>
+      </c>
+      <c r="C32" s="5">
+        <v>254</v>
+      </c>
+      <c r="D32" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="5">
+        <v>417175</v>
+      </c>
+      <c r="C33" s="5">
+        <v>264</v>
+      </c>
+      <c r="D33" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="5">
+        <v>364988</v>
+      </c>
+      <c r="C34" s="5">
+        <v>158</v>
+      </c>
+      <c r="D34" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="5">
+        <v>343824</v>
+      </c>
+      <c r="C35" s="5">
+        <v>156</v>
+      </c>
+      <c r="D35" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="5">
+        <v>323765</v>
+      </c>
+      <c r="C36" s="5">
+        <v>145</v>
+      </c>
+      <c r="D36" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="5">
+        <v>311568</v>
+      </c>
+      <c r="C37" s="5">
+        <v>195</v>
+      </c>
+      <c r="D37" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="5">
+        <v>305262</v>
+      </c>
+      <c r="C38" s="5">
+        <v>200</v>
+      </c>
+      <c r="D38" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="5">
+        <v>290996</v>
+      </c>
+      <c r="C39" s="5">
+        <v>251</v>
+      </c>
+      <c r="D39" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="5">
+        <v>288033</v>
+      </c>
+      <c r="C40" s="5">
+        <v>95</v>
+      </c>
+      <c r="D40" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="5">
+        <v>281204</v>
+      </c>
+      <c r="C41" s="5">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="5">
+        <v>261598</v>
+      </c>
+      <c r="C42" s="5">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="5">
+        <v>245560</v>
+      </c>
+      <c r="C43" s="5">
+        <v>59</v>
+      </c>
+      <c r="D43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="5">
+        <v>233496</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="5">
+        <v>212100</v>
+      </c>
+      <c r="C45" s="5">
+        <v>24</v>
+      </c>
+      <c r="D45" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="5">
+        <v>201360</v>
+      </c>
+      <c r="C46" s="5">
+        <v>36</v>
+      </c>
+      <c r="D46" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="5">
+        <v>168072</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="5">
+        <v>163748</v>
+      </c>
+      <c r="C48" s="5">
+        <v>29</v>
+      </c>
+      <c r="D48" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="5">
+        <v>162840</v>
+      </c>
+      <c r="C49" s="5">
+        <v>54</v>
+      </c>
+      <c r="D49" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="5">
+        <v>145350</v>
+      </c>
+      <c r="C50" s="5">
+        <v>25</v>
+      </c>
+      <c r="D50" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="5">
+        <v>137888</v>
+      </c>
+      <c r="C51" s="5">
+        <v>49</v>
+      </c>
+      <c r="D51" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="5">
+        <v>135280</v>
+      </c>
+      <c r="C52" s="5">
+        <v>36</v>
+      </c>
+      <c r="D52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="5">
+        <v>134250</v>
+      </c>
+      <c r="C53" s="5">
+        <v>25</v>
+      </c>
+      <c r="D53" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="5">
+        <v>133994</v>
+      </c>
+      <c r="C54" s="5">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="5">
+        <v>124740</v>
+      </c>
+      <c r="C55" s="5">
+        <v>19</v>
+      </c>
+      <c r="D55" s="5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="5">
+        <v>122500</v>
+      </c>
+      <c r="C56" s="5">
+        <v>52</v>
+      </c>
+      <c r="D56" s="5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="5">
+        <v>120075</v>
+      </c>
+      <c r="C57" s="5">
+        <v>57</v>
+      </c>
+      <c r="D57" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="5">
+        <v>118320</v>
+      </c>
+      <c r="C58" s="5">
+        <v>54</v>
+      </c>
+      <c r="D58" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5">
+        <v>116464</v>
+      </c>
+      <c r="C59" s="5">
+        <v>20</v>
+      </c>
+      <c r="D59" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="5">
+        <v>114660</v>
+      </c>
+      <c r="C60" s="5">
+        <v>159</v>
+      </c>
+      <c r="D60" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="5">
+        <v>112200</v>
+      </c>
+      <c r="C61" s="5">
+        <v>357</v>
+      </c>
+      <c r="D61" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="5">
+        <v>105948</v>
+      </c>
+      <c r="C62" s="5">
+        <v>62</v>
+      </c>
+      <c r="D62" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="5">
+        <v>105300</v>
+      </c>
+      <c r="C63" s="5">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="5">
+        <v>102258</v>
+      </c>
+      <c r="C64" s="5">
+        <v>24</v>
+      </c>
+      <c r="D64" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="5">
+        <v>98748</v>
+      </c>
+      <c r="C65" s="5">
+        <v>21</v>
+      </c>
+      <c r="D65" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="5">
+        <v>96876</v>
+      </c>
+      <c r="C66" s="5">
+        <v>25</v>
+      </c>
+      <c r="D66" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="5">
+        <v>95046</v>
+      </c>
+      <c r="C67" s="5">
+        <v>31</v>
+      </c>
+      <c r="D67" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="5">
+        <v>91266</v>
+      </c>
+      <c r="C68" s="5">
+        <v>26</v>
+      </c>
+      <c r="D68" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="5">
+        <v>89370</v>
+      </c>
+      <c r="C69" s="5">
+        <v>95</v>
+      </c>
+      <c r="D69" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="5">
+        <v>88256</v>
+      </c>
+      <c r="C70" s="5">
+        <v>64</v>
+      </c>
+      <c r="D70" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="5">
+        <v>87912</v>
+      </c>
+      <c r="C71" s="5">
+        <v>59</v>
+      </c>
+      <c r="D71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="5">
+        <v>85968</v>
+      </c>
+      <c r="C72" s="5">
+        <v>98</v>
+      </c>
+      <c r="D72" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="5">
+        <v>84868</v>
+      </c>
+      <c r="C73" s="5">
+        <v>65</v>
+      </c>
+      <c r="D73" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="5">
+        <v>83790</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="5">
+        <v>81538</v>
+      </c>
+      <c r="C75" s="5">
+        <v>85</v>
+      </c>
+      <c r="D75" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="5">
+        <v>81405</v>
+      </c>
+      <c r="C76" s="5">
+        <v>61</v>
+      </c>
+      <c r="D76" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="5">
+        <v>80272</v>
+      </c>
+      <c r="C77" s="5">
+        <v>25</v>
+      </c>
+      <c r="D77" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="5">
+        <v>79864</v>
+      </c>
+      <c r="C78" s="5">
+        <v>64</v>
+      </c>
+      <c r="D78" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="5">
+        <v>78155</v>
+      </c>
+      <c r="C79" s="5">
+        <v>93</v>
+      </c>
+      <c r="D79" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="5">
+        <v>77675</v>
+      </c>
+      <c r="C80" s="5">
+        <v>126</v>
+      </c>
+      <c r="D80" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="5">
+        <v>76916</v>
+      </c>
+      <c r="C81" s="5">
+        <v>125</v>
+      </c>
+      <c r="D81" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="5">
+        <v>75042</v>
+      </c>
+      <c r="C82" s="5">
+        <v>110</v>
+      </c>
+      <c r="D82" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="5">
+        <v>72704</v>
+      </c>
+      <c r="C83" s="5">
+        <v>55</v>
+      </c>
+      <c r="D83" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="5">
+        <v>72590</v>
+      </c>
+      <c r="C84" s="5">
+        <v>84</v>
+      </c>
+      <c r="D84" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="5">
+        <v>70864</v>
+      </c>
+      <c r="C85" s="5">
+        <v>65</v>
+      </c>
+      <c r="D85" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="5">
+        <v>69966</v>
+      </c>
+      <c r="C86" s="5">
+        <v>95</v>
+      </c>
+      <c r="D86" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="5">
+        <v>65059</v>
+      </c>
+      <c r="C87" s="5">
+        <v>48</v>
+      </c>
+      <c r="D87" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="5">
+        <v>64701</v>
+      </c>
+      <c r="C88" s="5">
+        <v>25</v>
+      </c>
+      <c r="D88" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="5">
+        <v>64326</v>
+      </c>
+      <c r="C89" s="5">
+        <v>65</v>
+      </c>
+      <c r="D89" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="5">
+        <v>63310</v>
+      </c>
+      <c r="C90" s="5">
+        <v>28</v>
+      </c>
+      <c r="D90" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="5">
+        <v>63310</v>
+      </c>
+      <c r="C91" s="5">
+        <v>28</v>
+      </c>
+      <c r="D91" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="5">
+        <v>59660</v>
+      </c>
+      <c r="C92" s="5">
+        <v>28</v>
+      </c>
+      <c r="D92" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="5">
+        <v>54282</v>
+      </c>
+      <c r="C93" s="5">
+        <v>29</v>
+      </c>
+      <c r="D93" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="5">
+        <v>54210</v>
+      </c>
+      <c r="C94" s="5">
+        <v>34</v>
+      </c>
+      <c r="D94" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="5">
+        <v>53534</v>
+      </c>
+      <c r="C95" s="5">
+        <v>65</v>
+      </c>
+      <c r="D95" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="5">
+        <v>53352</v>
+      </c>
+      <c r="C96" s="5">
+        <v>75</v>
+      </c>
+      <c r="D96" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="5">
+        <v>52065</v>
+      </c>
+      <c r="C97" s="5">
+        <v>152</v>
+      </c>
+      <c r="D97" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="5">
+        <v>49335</v>
+      </c>
+      <c r="C98" s="5">
+        <v>122</v>
+      </c>
+      <c r="D98" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="5">
+        <v>48894</v>
+      </c>
+      <c r="C99" s="5">
+        <v>124</v>
+      </c>
+      <c r="D99" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="5">
+        <v>47970</v>
+      </c>
+      <c r="C100" s="5">
+        <v>129</v>
+      </c>
+      <c r="D100" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="5">
+        <v>47750</v>
+      </c>
+      <c r="C101" s="5">
+        <v>134</v>
+      </c>
+      <c r="D101" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="5">
+        <v>47580</v>
+      </c>
+      <c r="C102" s="5">
+        <v>100</v>
+      </c>
+      <c r="D102" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="5">
+        <v>46683</v>
+      </c>
+      <c r="C103" s="5">
+        <v>101</v>
+      </c>
+      <c r="D103" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="5">
+        <v>46620</v>
+      </c>
+      <c r="C104" s="5">
+        <v>56</v>
+      </c>
+      <c r="D104" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45216</v>
+      </c>
+      <c r="C105" s="5">
+        <v>65</v>
+      </c>
+      <c r="D105" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="5">
+        <v>44808</v>
+      </c>
+      <c r="C106" s="5">
+        <v>98</v>
+      </c>
+      <c r="D106" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="5">
+        <v>44712</v>
+      </c>
+      <c r="C107" s="5">
+        <v>62</v>
+      </c>
+      <c r="D107" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="5">
+        <v>44160</v>
+      </c>
+      <c r="C108" s="5">
+        <v>56</v>
+      </c>
+      <c r="D108" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="5">
+        <v>41536</v>
+      </c>
+      <c r="C109" s="5">
+        <v>26</v>
+      </c>
+      <c r="D109" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="5">
+        <v>40825</v>
+      </c>
+      <c r="C110" s="5">
+        <v>26</v>
+      </c>
+      <c r="D110" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="5">
+        <v>40152</v>
+      </c>
+      <c r="C111" s="5">
+        <v>59</v>
+      </c>
+      <c r="D111" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="5">
+        <v>38610</v>
+      </c>
+      <c r="C112" s="5">
+        <v>62</v>
+      </c>
+      <c r="D112" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="5">
+        <v>38502</v>
+      </c>
+      <c r="C113" s="5">
+        <v>49</v>
+      </c>
+      <c r="D113" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="5">
+        <v>36624</v>
+      </c>
+      <c r="C114" s="5">
+        <v>62</v>
+      </c>
+      <c r="D114" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="5">
+        <v>36180</v>
+      </c>
+      <c r="C115" s="5">
+        <v>65</v>
+      </c>
+      <c r="D115" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B116" s="5">
+        <v>34250</v>
+      </c>
+      <c r="C116" s="5">
+        <v>65</v>
+      </c>
+      <c r="D116" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="5">
+        <v>33750</v>
+      </c>
+      <c r="C117" s="5">
+        <v>59</v>
+      </c>
+      <c r="D117" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" s="5">
+        <v>33397</v>
+      </c>
+      <c r="C118" s="5">
+        <v>26</v>
+      </c>
+      <c r="D118" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="5">
+        <v>32736</v>
+      </c>
+      <c r="C119" s="5">
+        <v>65</v>
+      </c>
+      <c r="D119" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" s="5">
+        <v>32620</v>
+      </c>
+      <c r="C120" s="5">
+        <v>25</v>
+      </c>
+      <c r="D120" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="5">
+        <v>31602</v>
+      </c>
+      <c r="C121" s="5">
+        <v>19</v>
+      </c>
+      <c r="D121" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="5">
+        <v>30550</v>
+      </c>
+      <c r="C122" s="5">
+        <v>29</v>
+      </c>
+      <c r="D122" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="5">
+        <v>30456</v>
+      </c>
+      <c r="C123" s="5">
+        <v>65</v>
+      </c>
+      <c r="D123" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="5">
+        <v>29376</v>
+      </c>
+      <c r="C124" s="5">
+        <v>28</v>
+      </c>
+      <c r="D124" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="5">
+        <v>27962</v>
+      </c>
+      <c r="C125" s="5">
+        <v>52</v>
+      </c>
+      <c r="D125" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="5">
+        <v>27280</v>
+      </c>
+      <c r="C126" s="5">
+        <v>152</v>
+      </c>
+      <c r="D126" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="5">
+        <v>26890</v>
+      </c>
+      <c r="C127" s="5">
+        <v>145</v>
+      </c>
+      <c r="D127" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="5">
+        <v>25599</v>
+      </c>
+      <c r="C128" s="5">
+        <v>51</v>
+      </c>
+      <c r="D128" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="5">
+        <v>24332</v>
+      </c>
+      <c r="C129" s="5">
+        <v>62</v>
+      </c>
+      <c r="D129" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="5">
+        <v>24288</v>
+      </c>
+      <c r="C130" s="5">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="5">
+        <v>22842</v>
+      </c>
+      <c r="C131" s="5">
+        <v>25</v>
+      </c>
+      <c r="D131" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" s="5">
+        <v>20860</v>
+      </c>
+      <c r="C132" s="5">
+        <v>26</v>
+      </c>
+      <c r="D132" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="5">
+        <v>20358</v>
+      </c>
+      <c r="C133" s="5">
+        <v>59</v>
+      </c>
+      <c r="D133" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" s="5">
+        <v>20215</v>
+      </c>
+      <c r="C134" s="5">
+        <v>87</v>
+      </c>
+      <c r="D134" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" s="5">
+        <v>19458</v>
+      </c>
+      <c r="C135" s="5">
+        <v>152</v>
+      </c>
+      <c r="D135" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" s="5">
+        <v>18788</v>
+      </c>
+      <c r="C136" s="5">
+        <v>154</v>
+      </c>
+      <c r="D136" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" s="5">
+        <v>18603</v>
+      </c>
+      <c r="C137" s="5">
+        <v>110</v>
+      </c>
+      <c r="D137" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" s="5">
+        <v>18564</v>
+      </c>
+      <c r="C138" s="5">
+        <v>159</v>
+      </c>
+      <c r="D138" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="5">
+        <v>16415</v>
+      </c>
+      <c r="C139" s="5">
+        <v>52</v>
+      </c>
+      <c r="D139" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="5">
+        <v>15732</v>
+      </c>
+      <c r="C140" s="5">
+        <v>65</v>
+      </c>
+      <c r="D140" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" s="5">
+        <v>15445</v>
+      </c>
+      <c r="C141" s="5">
+        <v>65</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B142" s="5">
+        <v>13072</v>
+      </c>
+      <c r="C142" s="5">
+        <v>98</v>
+      </c>
+      <c r="D142" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" s="5">
+        <v>7504</v>
+      </c>
+      <c r="C143" s="5">
+        <v>64</v>
+      </c>
+      <c r="D143" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2886</v>
+      </c>
+      <c r="C144" s="5">
+        <v>25</v>
+      </c>
+      <c r="D144" s="5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1043,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1147,7 +3702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1251,7 +3806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1344,7 +3899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1464,7 +4019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1539,7 +4094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1641,119 +4196,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="d">
-        <v>2021-10-03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2">
-        <v>321</v>
-      </c>
-      <c r="F2">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="d">
-        <v>2021-10-05</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="d">
-        <v>2021-10-06</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>140</v>
-      </c>
-      <c r="F4">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dzw/lang/go/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E716B1A-E6D6-5545-A287-306DEAE67FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50215FC1-6797-0540-A9F5-B9DE6874B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="308" uniqueCount="241">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="452" uniqueCount="245">
   <si>
     <t>编号</t>
   </si>
@@ -760,6 +760,18 @@
   </si>
   <si>
     <t>龙蟠-中联专用尿素溶液10KG</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1474,15 +1486,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E17D6C-44BA-9B4A-9C95-89DCEC61BB27}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -1495,8 +1510,11 @@
       <c r="D1" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -1509,8 +1527,11 @@
       <c r="D2" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -1523,8 +1544,11 @@
       <c r="D3" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1537,8 +1561,11 @@
       <c r="D4" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1551,8 +1578,11 @@
       <c r="D5" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -1565,8 +1595,11 @@
       <c r="D6" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>114</v>
       </c>
@@ -1579,8 +1612,11 @@
       <c r="D7" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>115</v>
       </c>
@@ -1593,8 +1629,11 @@
       <c r="D8" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -1607,8 +1646,11 @@
       <c r="D9" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>116</v>
       </c>
@@ -1621,8 +1663,11 @@
       <c r="D10" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>117</v>
       </c>
@@ -1635,8 +1680,11 @@
       <c r="D11" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>118</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="D12" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>119</v>
       </c>
@@ -1663,8 +1714,11 @@
       <c r="D13" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
@@ -1677,8 +1731,11 @@
       <c r="D14" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1691,8 +1748,11 @@
       <c r="D15" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -1705,8 +1765,11 @@
       <c r="D16" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="D17" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>123</v>
       </c>
@@ -1733,8 +1799,11 @@
       <c r="D18" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -1747,8 +1816,11 @@
       <c r="D19" s="5">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -1761,8 +1833,11 @@
       <c r="D20" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
@@ -1775,8 +1850,11 @@
       <c r="D21" s="5">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1789,8 +1867,11 @@
       <c r="D22" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>127</v>
       </c>
@@ -1803,8 +1884,11 @@
       <c r="D23" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>128</v>
       </c>
@@ -1817,8 +1901,11 @@
       <c r="D24" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>129</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="D25" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>130</v>
       </c>
@@ -1845,8 +1935,11 @@
       <c r="D26" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
@@ -1859,8 +1952,11 @@
       <c r="D27" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -1873,8 +1969,11 @@
       <c r="D28" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>131</v>
       </c>
@@ -1887,8 +1986,11 @@
       <c r="D29" s="5">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -1901,8 +2003,11 @@
       <c r="D30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -1915,8 +2020,11 @@
       <c r="D31" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -1929,8 +2037,11 @@
       <c r="D32" s="5">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
@@ -1943,8 +2054,11 @@
       <c r="D33" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
         <v>133</v>
       </c>
@@ -1957,8 +2071,11 @@
       <c r="D34" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>134</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="D35" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
@@ -1985,8 +2105,11 @@
       <c r="D36" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
         <v>136</v>
       </c>
@@ -1999,8 +2122,11 @@
       <c r="D37" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
         <v>137</v>
       </c>
@@ -2013,8 +2139,11 @@
       <c r="D38" s="5">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
         <v>138</v>
       </c>
@@ -2027,8 +2156,11 @@
       <c r="D39" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
         <v>139</v>
       </c>
@@ -2041,8 +2173,11 @@
       <c r="D40" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -2055,8 +2190,11 @@
       <c r="D41" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
         <v>141</v>
       </c>
@@ -2069,8 +2207,11 @@
       <c r="D42" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
         <v>142</v>
       </c>
@@ -2083,8 +2224,11 @@
       <c r="D43" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>143</v>
       </c>
@@ -2097,8 +2241,11 @@
       <c r="D44" s="5">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
         <v>144</v>
       </c>
@@ -2111,8 +2258,11 @@
       <c r="D45" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
         <v>145</v>
       </c>
@@ -2125,8 +2275,11 @@
       <c r="D46" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
         <v>146</v>
       </c>
@@ -2139,8 +2292,11 @@
       <c r="D47" s="5">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
         <v>147</v>
       </c>
@@ -2153,8 +2309,11 @@
       <c r="D48" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
         <v>148</v>
       </c>
@@ -2167,8 +2326,11 @@
       <c r="D49" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
         <v>149</v>
       </c>
@@ -2181,8 +2343,11 @@
       <c r="D50" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
         <v>150</v>
       </c>
@@ -2195,8 +2360,11 @@
       <c r="D51" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>151</v>
       </c>
@@ -2209,8 +2377,11 @@
       <c r="D52" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>152</v>
       </c>
@@ -2223,8 +2394,11 @@
       <c r="D53" s="5">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
         <v>153</v>
       </c>
@@ -2237,8 +2411,11 @@
       <c r="D54" s="5">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
         <v>154</v>
       </c>
@@ -2251,8 +2428,11 @@
       <c r="D55" s="5">
         <v>295</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
         <v>155</v>
       </c>
@@ -2265,8 +2445,11 @@
       <c r="D56" s="5">
         <v>452</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
         <v>156</v>
       </c>
@@ -2279,8 +2462,11 @@
       <c r="D57" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
         <v>157</v>
       </c>
@@ -2293,8 +2479,11 @@
       <c r="D58" s="5">
         <v>254</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2307,8 +2496,11 @@
       <c r="D59" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
         <v>158</v>
       </c>
@@ -2321,8 +2513,11 @@
       <c r="D60" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
         <v>159</v>
       </c>
@@ -2335,8 +2530,11 @@
       <c r="D61" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
         <v>160</v>
       </c>
@@ -2349,8 +2547,11 @@
       <c r="D62" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
         <v>161</v>
       </c>
@@ -2363,8 +2564,11 @@
       <c r="D63" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>162</v>
       </c>
@@ -2377,8 +2581,11 @@
       <c r="D64" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
         <v>163</v>
       </c>
@@ -2391,8 +2598,11 @@
       <c r="D65" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
         <v>164</v>
       </c>
@@ -2405,8 +2615,11 @@
       <c r="D66" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
         <v>165</v>
       </c>
@@ -2419,8 +2632,11 @@
       <c r="D67" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
         <v>166</v>
       </c>
@@ -2433,8 +2649,11 @@
       <c r="D68" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
         <v>167</v>
       </c>
@@ -2447,8 +2666,11 @@
       <c r="D69" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
         <v>168</v>
       </c>
@@ -2461,8 +2683,11 @@
       <c r="D70" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
         <v>169</v>
       </c>
@@ -2475,8 +2700,11 @@
       <c r="D71" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
         <v>170</v>
       </c>
@@ -2489,8 +2717,11 @@
       <c r="D72" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
         <v>171</v>
       </c>
@@ -2503,8 +2734,11 @@
       <c r="D73" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
@@ -2517,8 +2751,11 @@
       <c r="D74" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
         <v>173</v>
       </c>
@@ -2531,8 +2768,11 @@
       <c r="D75" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -2545,8 +2785,11 @@
       <c r="D76" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
         <v>175</v>
       </c>
@@ -2559,8 +2802,11 @@
       <c r="D77" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
         <v>176</v>
       </c>
@@ -2573,8 +2819,11 @@
       <c r="D78" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
         <v>177</v>
       </c>
@@ -2587,8 +2836,11 @@
       <c r="D79" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
         <v>24</v>
       </c>
@@ -2601,8 +2853,11 @@
       <c r="D80" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
         <v>178</v>
       </c>
@@ -2615,8 +2870,11 @@
       <c r="D81" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
         <v>179</v>
       </c>
@@ -2629,8 +2887,11 @@
       <c r="D82" s="5">
         <v>86</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
         <v>180</v>
       </c>
@@ -2643,8 +2904,11 @@
       <c r="D83" s="5">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
         <v>181</v>
       </c>
@@ -2657,8 +2921,11 @@
       <c r="D84" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
         <v>182</v>
       </c>
@@ -2671,8 +2938,11 @@
       <c r="D85" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
         <v>183</v>
       </c>
@@ -2685,8 +2955,11 @@
       <c r="D86" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
         <v>184</v>
       </c>
@@ -2699,8 +2972,11 @@
       <c r="D87" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
         <v>185</v>
       </c>
@@ -2713,8 +2989,11 @@
       <c r="D88" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
         <v>186</v>
       </c>
@@ -2727,8 +3006,11 @@
       <c r="D89" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
         <v>187</v>
       </c>
@@ -2741,8 +3023,11 @@
       <c r="D90" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
         <v>188</v>
       </c>
@@ -2755,8 +3040,11 @@
       <c r="D91" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
         <v>189</v>
       </c>
@@ -2769,8 +3057,11 @@
       <c r="D92" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
         <v>190</v>
       </c>
@@ -2783,8 +3074,11 @@
       <c r="D93" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
         <v>191</v>
       </c>
@@ -2797,8 +3091,11 @@
       <c r="D94" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
         <v>192</v>
       </c>
@@ -2811,8 +3108,11 @@
       <c r="D95" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
@@ -2825,8 +3125,11 @@
       <c r="D96" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -2839,8 +3142,11 @@
       <c r="D97" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
         <v>195</v>
       </c>
@@ -2853,8 +3159,11 @@
       <c r="D98" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
         <v>196</v>
       </c>
@@ -2867,8 +3176,11 @@
       <c r="D99" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="5" t="s">
         <v>197</v>
       </c>
@@ -2881,8 +3193,11 @@
       <c r="D100" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
         <v>198</v>
       </c>
@@ -2895,8 +3210,11 @@
       <c r="D101" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="5" t="s">
         <v>199</v>
       </c>
@@ -2909,8 +3227,11 @@
       <c r="D102" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="5" t="s">
         <v>200</v>
       </c>
@@ -2923,8 +3244,11 @@
       <c r="D103" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="5" t="s">
         <v>201</v>
       </c>
@@ -2937,8 +3261,11 @@
       <c r="D104" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="5" t="s">
         <v>202</v>
       </c>
@@ -2951,8 +3278,11 @@
       <c r="D105" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
         <v>203</v>
       </c>
@@ -2965,8 +3295,11 @@
       <c r="D106" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
         <v>204</v>
       </c>
@@ -2979,8 +3312,11 @@
       <c r="D107" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
         <v>205</v>
       </c>
@@ -2993,8 +3329,11 @@
       <c r="D108" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
         <v>206</v>
       </c>
@@ -3007,8 +3346,11 @@
       <c r="D109" s="5">
         <v>49</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
         <v>207</v>
       </c>
@@ -3021,8 +3363,11 @@
       <c r="D110" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
         <v>208</v>
       </c>
@@ -3035,8 +3380,11 @@
       <c r="D111" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
         <v>209</v>
       </c>
@@ -3049,8 +3397,11 @@
       <c r="D112" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
         <v>210</v>
       </c>
@@ -3063,8 +3414,11 @@
       <c r="D113" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
         <v>211</v>
       </c>
@@ -3077,8 +3431,11 @@
       <c r="D114" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
         <v>212</v>
       </c>
@@ -3091,8 +3448,11 @@
       <c r="D115" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
         <v>213</v>
       </c>
@@ -3105,8 +3465,11 @@
       <c r="D116" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
         <v>214</v>
       </c>
@@ -3119,8 +3482,11 @@
       <c r="D117" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
         <v>215</v>
       </c>
@@ -3133,8 +3499,11 @@
       <c r="D118" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
         <v>216</v>
       </c>
@@ -3147,8 +3516,11 @@
       <c r="D119" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
         <v>217</v>
       </c>
@@ -3161,8 +3533,11 @@
       <c r="D120" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
         <v>218</v>
       </c>
@@ -3175,8 +3550,11 @@
       <c r="D121" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
         <v>219</v>
       </c>
@@ -3189,8 +3567,11 @@
       <c r="D122" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
         <v>220</v>
       </c>
@@ -3203,8 +3584,11 @@
       <c r="D123" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
         <v>221</v>
       </c>
@@ -3217,8 +3601,11 @@
       <c r="D124" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
         <v>222</v>
       </c>
@@ -3231,8 +3618,11 @@
       <c r="D125" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
         <v>223</v>
       </c>
@@ -3245,8 +3635,11 @@
       <c r="D126" s="5">
         <v>152</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
         <v>224</v>
       </c>
@@ -3259,8 +3652,11 @@
       <c r="D127" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
         <v>225</v>
       </c>
@@ -3273,8 +3669,11 @@
       <c r="D128" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
         <v>226</v>
       </c>
@@ -3287,8 +3686,11 @@
       <c r="D129" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
         <v>227</v>
       </c>
@@ -3301,8 +3703,11 @@
       <c r="D130" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
         <v>228</v>
       </c>
@@ -3315,8 +3720,11 @@
       <c r="D131" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
         <v>229</v>
       </c>
@@ -3329,8 +3737,11 @@
       <c r="D132" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
         <v>230</v>
       </c>
@@ -3343,8 +3754,11 @@
       <c r="D133" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
         <v>231</v>
       </c>
@@ -3357,8 +3771,11 @@
       <c r="D134" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
         <v>232</v>
       </c>
@@ -3371,8 +3788,11 @@
       <c r="D135" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
         <v>233</v>
       </c>
@@ -3385,8 +3805,11 @@
       <c r="D136" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
         <v>234</v>
       </c>
@@ -3399,8 +3822,11 @@
       <c r="D137" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
         <v>235</v>
       </c>
@@ -3413,8 +3839,11 @@
       <c r="D138" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
         <v>236</v>
       </c>
@@ -3427,8 +3856,11 @@
       <c r="D139" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
         <v>15</v>
       </c>
@@ -3441,8 +3873,11 @@
       <c r="D140" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
         <v>237</v>
       </c>
@@ -3455,8 +3890,11 @@
       <c r="D141" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
         <v>238</v>
       </c>
@@ -3469,8 +3907,11 @@
       <c r="D142" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
         <v>239</v>
       </c>
@@ -3483,8 +3924,11 @@
       <c r="D143" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="5" t="s">
         <v>240</v>
       </c>
@@ -3496,11 +3940,15 @@
       </c>
       <c r="D144" s="5">
         <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
